--- a/313-MajSetID/ig/StructureDefinition-esms-consent.xlsx
+++ b/313-MajSetID/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T14:33:05+00:00</t>
+    <t>2025-01-29T15:05:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/313-MajSetID/ig/StructureDefinition-esms-consent.xlsx
+++ b/313-MajSetID/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T15:05:04+00:00</t>
+    <t>2025-01-29T16:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/313-MajSetID/ig/StructureDefinition-esms-consent.xlsx
+++ b/313-MajSetID/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T16:25:06+00:00</t>
+    <t>2025-01-29T16:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/313-MajSetID/ig/StructureDefinition-esms-consent.xlsx
+++ b/313-MajSetID/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T16:29:32+00:00</t>
+    <t>2025-01-29T16:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/313-MajSetID/ig/StructureDefinition-esms-consent.xlsx
+++ b/313-MajSetID/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-29T16:33:24+00:00</t>
+    <t>2025-01-29T16:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
